--- a/Mifos Automation Excels/Client/4567-MS-ACT2CTR-MEET-WEEKLYonFRI-ASSIGNSTAFF-ACTGRP-ACTCLIENT-DISJLG02JAN-WithPenaltyCharge-PRODUCTIVE_COLLSHEET_ONTIME09JAN-C1.xlsx
+++ b/Mifos Automation Excels/Client/4567-MS-ACT2CTR-MEET-WEEKLYonFRI-ASSIGNSTAFF-ACTGRP-ACTCLIENT-DISJLG02JAN-WithPenaltyCharge-PRODUCTIVE_COLLSHEET_ONTIME09JAN-C1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>submittedon</t>
   </si>
@@ -150,9 +145,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -284,12 +276,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -309,6 +301,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -331,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -344,36 +346,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -417,8 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -435,6 +405,12 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,26 +533,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,23 +568,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -805,7 +747,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -820,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -828,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -865,7 +807,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -873,15 +815,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5">
         <v>42005</v>
@@ -889,31 +831,31 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="21">
+        <v>81</v>
+      </c>
+      <c r="B11" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -921,7 +863,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -948,11 +890,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>67</v>
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -996,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1041,7 +983,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1050,32 +992,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="B2" s="4">
         <v>42013</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>79</v>
+      <c r="A3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>61</v>
+      <c r="A4" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1083,7 +1025,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1099,7 +1041,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1129,7 +1071,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,24 +1091,24 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="B7" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="B8" s="10">
         <v>42009</v>
@@ -1238,7 +1180,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1274,10 +1216,10 @@
       <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>9177.19</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>9177.19</v>
       </c>
     </row>
@@ -1351,7 +1293,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1359,61 +1301,57 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>42006</v>
       </c>
       <c r="D2" s="13"/>
@@ -1446,15 +1384,17 @@
       <c r="B3" s="13">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>42013</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="14">
+        <v>42013</v>
+      </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="13">
         <v>822.81</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>9177.19</v>
       </c>
       <c r="H3" s="13">
@@ -1470,17 +1410,18 @@
         <v>945.89</v>
       </c>
       <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13"/>
+        <v>945.89</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
       <c r="O3" s="13">
         <v>0</v>
       </c>
+      <c r="P3" s="13"/>
       <c r="Q3" s="13">
-        <v>945.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1490,7 +1431,7 @@
       <c r="B4" s="13">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>42020</v>
       </c>
       <c r="D4" s="13"/>
@@ -1498,7 +1439,7 @@
       <c r="F4" s="13">
         <v>824.71</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>8352.48</v>
       </c>
       <c r="H4" s="13">
@@ -1516,13 +1457,14 @@
       <c r="L4" s="13">
         <v>0</v>
       </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
       <c r="O4" s="13">
         <v>0</v>
       </c>
+      <c r="P4" s="13"/>
       <c r="Q4" s="13">
         <v>845.89</v>
       </c>
@@ -1534,7 +1476,7 @@
       <c r="B5" s="13">
         <v>7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>42027</v>
       </c>
       <c r="D5" s="13"/>
@@ -1542,7 +1484,7 @@
       <c r="F5" s="13">
         <v>826.62</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>7525.86</v>
       </c>
       <c r="H5" s="13">
@@ -1560,13 +1502,14 @@
       <c r="L5" s="13">
         <v>0</v>
       </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
       <c r="O5" s="13">
         <v>0</v>
       </c>
+      <c r="P5" s="13"/>
       <c r="Q5" s="13">
         <v>845.89</v>
       </c>
@@ -1578,7 +1521,7 @@
       <c r="B6" s="13">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>42034</v>
       </c>
       <c r="D6" s="13"/>
@@ -1586,7 +1529,7 @@
       <c r="F6" s="13">
         <v>828.52</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>6697.34</v>
       </c>
       <c r="H6" s="13">
@@ -1604,13 +1547,14 @@
       <c r="L6" s="13">
         <v>0</v>
       </c>
-      <c r="M6" s="13">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
       <c r="O6" s="13">
         <v>0</v>
       </c>
+      <c r="P6" s="13"/>
       <c r="Q6" s="13">
         <v>845.89</v>
       </c>
@@ -1622,7 +1566,7 @@
       <c r="B7" s="13">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>42041</v>
       </c>
       <c r="D7" s="13"/>
@@ -1630,7 +1574,7 @@
       <c r="F7" s="13">
         <v>830.43</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>5866.91</v>
       </c>
       <c r="H7" s="13">
@@ -1648,13 +1592,14 @@
       <c r="L7" s="13">
         <v>0</v>
       </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
       <c r="O7" s="13">
         <v>0</v>
       </c>
+      <c r="P7" s="13"/>
       <c r="Q7" s="13">
         <v>845.89</v>
       </c>
@@ -1666,7 +1611,7 @@
       <c r="B8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>42048</v>
       </c>
       <c r="D8" s="13"/>
@@ -1674,7 +1619,7 @@
       <c r="F8" s="13">
         <v>832.35</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>5034.5600000000004</v>
       </c>
       <c r="H8" s="13">
@@ -1692,13 +1637,14 @@
       <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
       <c r="O8" s="13">
         <v>0</v>
       </c>
+      <c r="P8" s="13"/>
       <c r="Q8" s="13">
         <v>845.89</v>
       </c>
@@ -1710,7 +1656,7 @@
       <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>42055</v>
       </c>
       <c r="D9" s="13"/>
@@ -1718,7 +1664,7 @@
       <c r="F9" s="13">
         <v>834.27</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>4200.29</v>
       </c>
       <c r="H9" s="13">
@@ -1736,13 +1682,14 @@
       <c r="L9" s="13">
         <v>0</v>
       </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
       <c r="O9" s="13">
         <v>0</v>
       </c>
+      <c r="P9" s="13"/>
       <c r="Q9" s="13">
         <v>845.89</v>
       </c>
@@ -1754,7 +1701,7 @@
       <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>42062</v>
       </c>
       <c r="D10" s="13"/>
@@ -1762,7 +1709,7 @@
       <c r="F10" s="13">
         <v>836.2</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>3364.09</v>
       </c>
       <c r="H10" s="13">
@@ -1780,13 +1727,14 @@
       <c r="L10" s="13">
         <v>0</v>
       </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
       <c r="O10" s="13">
         <v>0</v>
       </c>
+      <c r="P10" s="13"/>
       <c r="Q10" s="13">
         <v>845.89</v>
       </c>
@@ -1798,7 +1746,7 @@
       <c r="B11" s="13">
         <v>7</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>42069</v>
       </c>
       <c r="D11" s="13"/>
@@ -1806,7 +1754,7 @@
       <c r="F11" s="13">
         <v>838.13</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <v>2525.96</v>
       </c>
       <c r="H11" s="13">
@@ -1824,13 +1772,14 @@
       <c r="L11" s="13">
         <v>0</v>
       </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
       <c r="O11" s="13">
         <v>0</v>
       </c>
+      <c r="P11" s="13"/>
       <c r="Q11" s="13">
         <v>845.89</v>
       </c>
@@ -1842,7 +1791,7 @@
       <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>42076</v>
       </c>
       <c r="D12" s="13"/>
@@ -1850,7 +1799,7 @@
       <c r="F12" s="13">
         <v>840.06</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <v>1685.9</v>
       </c>
       <c r="H12" s="13">
@@ -1868,13 +1817,14 @@
       <c r="L12" s="13">
         <v>0</v>
       </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
       <c r="O12" s="13">
         <v>0</v>
       </c>
+      <c r="P12" s="13"/>
       <c r="Q12" s="13">
         <v>845.89</v>
       </c>
@@ -1886,7 +1836,7 @@
       <c r="B13" s="13">
         <v>7</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>42083</v>
       </c>
       <c r="D13" s="13"/>
@@ -1912,13 +1862,14 @@
       <c r="L13" s="13">
         <v>0</v>
       </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
       <c r="O13" s="13">
         <v>0</v>
       </c>
+      <c r="P13" s="13"/>
       <c r="Q13" s="13">
         <v>845.89</v>
       </c>
@@ -1930,7 +1881,7 @@
       <c r="B14" s="13">
         <v>7</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>42090</v>
       </c>
       <c r="D14" s="13"/>
@@ -1956,13 +1907,14 @@
       <c r="L14" s="13">
         <v>0</v>
       </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
       <c r="O14" s="13">
         <v>0</v>
       </c>
+      <c r="P14" s="13"/>
       <c r="Q14" s="13">
         <v>845.85</v>
       </c>
@@ -1988,18 +1940,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2023,25 +1975,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="23">
+        <v>65</v>
+      </c>
+      <c r="B2" s="21">
         <v>42013</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="24">
+        <v>67</v>
+      </c>
+      <c r="B3" s="22">
         <v>1000</v>
       </c>
     </row>
